--- a/Mumbai Indians/Dhawal Kulkarni .xlsx
+++ b/Mumbai Indians/Dhawal Kulkarni .xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,6 +399,21 @@
       <c r="F1" t="str">
         <v>sixes</v>
       </c>
+      <c r="G1" t="str">
+        <v>sr</v>
+      </c>
+      <c r="H1" t="str">
+        <v>opponentTeamName</v>
+      </c>
+      <c r="I1" t="str">
+        <v>venue</v>
+      </c>
+      <c r="J1" t="str">
+        <v>date</v>
+      </c>
+      <c r="K1" t="str">
+        <v>result</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -420,9 +435,306 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B3" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C3" t="str">
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B4" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C4" t="str">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B5" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C5" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B6" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C6" t="str">
+        <v>3</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B7" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C7" t="str">
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B8" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B9" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C9" t="str">
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B10" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C10" t="str">
+        <v>3</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B11" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B12" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C12" t="str">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B13" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Sunrisers Hyderabad INNINGS (target: 150 runs from 20 overs)</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Nov 3 2020</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v xml:space="preserve">Dhawal Kulkarni </v>
+      </c>
+      <c r="B14" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="C14" t="str">
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Sunrisers Hyderabad INNINGS (target: 150 runs from 20 overs)</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Nov 3 2020</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K14"/>
   </ignoredErrors>
 </worksheet>
 </file>